--- a/IP1.xlsx
+++ b/IP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\testingIntegrationPackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844E98A3-F030-47AA-AEB5-22E54E31A038}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6FB543-8D7A-4202-BE98-68AA32A3B929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_LContact001" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,6 +1488,9 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -1502,6 +1505,9 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
@@ -1516,6 +1522,9 @@
       <c r="H5" t="s">
         <v>103</v>
       </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
@@ -1527,6 +1536,9 @@
       <c r="H6" t="s">
         <v>105</v>
       </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -1538,6 +1550,9 @@
       <c r="H7" t="s">
         <v>107</v>
       </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
@@ -1549,6 +1564,9 @@
       <c r="H8" t="s">
         <v>109</v>
       </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
@@ -1560,6 +1578,9 @@
       <c r="H9" t="s">
         <v>111</v>
       </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
@@ -1571,6 +1592,9 @@
       <c r="H10" t="s">
         <v>114</v>
       </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
@@ -1581,6 +1605,9 @@
       </c>
       <c r="H11" t="s">
         <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
